--- a/biology/Botanique/Hymenophyllum_nephrophyllum/Hymenophyllum_nephrophyllum.xlsx
+++ b/biology/Botanique/Hymenophyllum_nephrophyllum/Hymenophyllum_nephrophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum nephrophyllum est une fougère de la famille des Hyménophyllacées originaire de Nouvelle-Zélande.
 Cette espèce est appelée Raurenga en maori.
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a les caractéristiques suivantes :
 le rhizome est long, fin, partiellement couvert de poils foncés à noirs ;
 les frondes sont espacées assez régulièrement et atteignent couramment 10 à 15 cm de long ;
-le limbe est entier, en forme de d'éventail ressemblant à un rein, ce qui est à l'origine de l'épithète spécifique[1] ;
-l'épaisseur du limbe entre les nervures est de deux cellules, exception dans la famille des Hymenophyllacées [2];
+le limbe est entier, en forme de d'éventail ressemblant à un rein, ce qui est à l'origine de l'épithète spécifique ;
+l'épaisseur du limbe entre les nervures est de deux cellules, exception dans la famille des Hymenophyllacées ;
 les sores sont situés au pourtour du limbe ;
 l'indusie est tubulaire, formant donc une exception dans le genre Hymenophyllum ;
 chaque sore porte une courte columelle foncée portant les sporanges et sortant assez largement de l'indusie.
@@ -553,7 +567,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, à la fois épiphyte et terrestre, n'est présente qu'en Nouvelle-Zélande.
 </t>
@@ -584,13 +600,15 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Georg Forster décrit, en 1786, cette fougère collectée en Nouvelle-Zélande sous le nom de Trichomanes reniforme[3]. Le classement dans le genre Trichomanes, bien que le genre Hymenophyllum ne fût pas créé à cette date, s'est trouvé justifié a posteriori par des indusies tubulaires.
-Karel Bořivoj Presl, en 1843, trouve cette espèce suffisamment particulière pour la considérer comme l'espèce-type d'un genre à part entière : Cardiomanes reniforme (G.Forst.) C.Presl[4].
-En 1906, Carl Frederik Albert Christensen, ne conservant que deux genres - Trichomanes et Hymenophyllum -, la place dans un nouveau sous-genre : Trichomanes subgen. Cardiomanes[5].
-En 1938 Edwin Bingham Copeland[6] puis en 1968 Conrad Vernon Morton[7] conservent ce classement de Karel Bořivoj Presl dans le genre Cardiomanes.
-En 2006, Atsushi Ebihara et Kunio Iwatsuki, à la suite de leurs études phylogénétiques, sont conduits à la placer dans le genre Hymenophyllum, sous-genre Cardiomanes. Comme l'épithète spécifique de reniforme est déjà utilisé par une espèce décrite par William Jackson Hooker, ils lui donnent comme nom : Hymenophyllum nephrophyllum Ebihara &amp; K.Iwats., traduction grecque de reniforme (en forme de rein)[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Georg Forster décrit, en 1786, cette fougère collectée en Nouvelle-Zélande sous le nom de Trichomanes reniforme. Le classement dans le genre Trichomanes, bien que le genre Hymenophyllum ne fût pas créé à cette date, s'est trouvé justifié a posteriori par des indusies tubulaires.
+Karel Bořivoj Presl, en 1843, trouve cette espèce suffisamment particulière pour la considérer comme l'espèce-type d'un genre à part entière : Cardiomanes reniforme (G.Forst.) C.Presl.
+En 1906, Carl Frederik Albert Christensen, ne conservant que deux genres - Trichomanes et Hymenophyllum -, la place dans un nouveau sous-genre : Trichomanes subgen. Cardiomanes.
+En 1938 Edwin Bingham Copeland puis en 1968 Conrad Vernon Morton conservent ce classement de Karel Bořivoj Presl dans le genre Cardiomanes.
+En 2006, Atsushi Ebihara et Kunio Iwatsuki, à la suite de leurs études phylogénétiques, sont conduits à la placer dans le genre Hymenophyllum, sous-genre Cardiomanes. Comme l'épithète spécifique de reniforme est déjà utilisé par une espèce décrite par William Jackson Hooker, ils lui donnent comme nom : Hymenophyllum nephrophyllum Ebihara &amp; K.Iwats., traduction grecque de reniforme (en forme de rein).
 Hymenophyllum nephrophyllum est la seule espèce du sous-genre Cardiomanes.
 Cette espèce compte donc deux synonymes :
 Cardiomanes reniforme (G.Forst.) C.Presl
